--- a/medicine/Pharmacie/Idursulfase/Idursulfase.xlsx
+++ b/medicine/Pharmacie/Idursulfase/Idursulfase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'idursulfase, est un médicament utilisé pour traiter la mucopolysaccharidose II et vendu sous la marque Elaprase[1].
+L'idursulfase, est un médicament utilisé pour traiter la mucopolysaccharidose II et vendu sous la marque Elaprase.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une forme d'enzyme lysosomale connue sous le nom d' iduronate-2-sulfatase et est fabriquée par la technologie de l'ADN recombinant [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une forme d'enzyme lysosomale connue sous le nom d' iduronate-2-sulfatase et est fabriquée par la technologie de l'ADN recombinant .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter la mucopolysaccharidose II [1]. Il est administré par injection progressive dans une veine[1]. ILes effets sur l’espérance de vie et la qualité de vie ne sont pas clairs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter la mucopolysaccharidose II . Il est administré par injection progressive dans une veine. ILes effets sur l’espérance de vie et la qualité de vie ne sont pas clairs.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires du médicament comprennent des éruptions cutanées, de la fièvre, des maux de tête, de l'hypertension artérielle et des bouffées vasomotrices; [3] d'autres effets secondaires peuvent inclure l'essoufflement, les brûlures d'estomac, les douleurs thoraciques et l'anaphylaxie [3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires du médicament comprennent des éruptions cutanées, de la fièvre, des maux de tête, de l'hypertension artérielle et des bouffées vasomotrices;  d'autres effets secondaires peuvent inclure l'essoufflement, les brûlures d'estomac, les douleurs thoraciques et l'anaphylaxie . 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament a été approuvée pour un usage médical aux États-Unis en 2006 et en Europe en 2007[1],[3]. Aux États-Unis, il en coûte environ 475 000 dollars américains pour traiter une personne de 35 kg pendant un an[4]. Au Royaume-Uni, ce montant coûte 310 000 livres sterling[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament a été approuvée pour un usage médical aux États-Unis en 2006 et en Europe en 2007,. Aux États-Unis, il en coûte environ 475 000 dollars américains pour traiter une personne de 35 kg pendant un an. Au Royaume-Uni, ce montant coûte 310 000 livres sterling.
 </t>
         </is>
       </c>
